--- a/UX-test/approve-reject/comment-in-asset-test.xlsx
+++ b/UX-test/approve-reject/comment-in-asset-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anagrana/Documents/Kactus/design-system/UX-test/approve-reject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA523FD-91DE-C641-ACFB-FE9DA4643109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3956B8CC-1EDB-0D4D-AFA0-6E485A808E72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14500" yWindow="7340" windowWidth="28320" windowHeight="17840" xr2:uid="{69B89F32-9673-BB49-9CD2-9562BEC1F27F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{69B89F32-9673-BB49-9CD2-9562BEC1F27F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tasks</t>
   </si>
@@ -42,20 +42,26 @@
     <t>Flow comments in Asset Detail</t>
   </si>
   <si>
-    <t>Make a Commentary and use the "Pin" option</t>
-  </si>
-  <si>
-    <t>Make a commentary with a geometryc  figure (square or circle)</t>
-  </si>
-  <si>
     <t>Select the live trace option on the                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                          commentary and make it appear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a commentary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make a commentary with a geometryc  figure </t>
+  </si>
+  <si>
+    <t>Close the comentary</t>
+  </si>
+  <si>
+    <t>Make the commentary a pin.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +81,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -203,11 +216,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -241,6 +267,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,7 +295,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -559,7 +594,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,32 +621,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
